--- a/PM/Attachment E Approach Criteria Evidence Template.xlsx
+++ b/PM/Attachment E Approach Criteria Evidence Template.xlsx
@@ -48747,7 +48747,7 @@
       <c r="C2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="2"/>
@@ -48799,17 +48799,17 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2"/>
@@ -48861,14 +48861,14 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="3"/>
@@ -48891,7 +48891,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -48923,18 +48923,18 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
+      <c r="D8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -48992,7 +48992,7 @@
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D10" s="3"/>
@@ -49045,7 +49045,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -49105,7 +49105,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -49137,17 +49137,17 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E15" s="2"/>
@@ -49202,7 +49202,7 @@
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="3"/>
@@ -49225,17 +49225,17 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E18" s="2"/>
@@ -49264,7 +49264,7 @@
       <c r="B19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="3"/>
@@ -49294,7 +49294,7 @@
       <c r="B20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="3"/>
@@ -49317,7 +49317,7 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -49341,7 +49341,7 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -49365,7 +49365,7 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -49389,7 +49389,7 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
     </row>
-    <row r="24" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -49413,7 +49413,7 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
     </row>
-    <row r="25" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -49437,7 +49437,7 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -49461,7 +49461,7 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
     </row>
-    <row r="27" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -49485,7 +49485,7 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
     </row>
-    <row r="28" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -49509,7 +49509,7 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -49533,7 +49533,7 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -49557,7 +49557,7 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -49581,7 +49581,7 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -49605,7 +49605,7 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -49629,7 +49629,7 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -49653,7 +49653,7 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -49677,7 +49677,7 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
     </row>
-    <row r="36" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -49701,7 +49701,7 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
     </row>
-    <row r="37" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -49725,7 +49725,7 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:22" ht="13.15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -72892,10 +72892,24 @@
     <hyperlink ref="C12" r:id="rId3"/>
     <hyperlink ref="C13" r:id="rId4"/>
     <hyperlink ref="C5" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId7"/>
+    <hyperlink ref="D8" r:id="rId8"/>
+    <hyperlink ref="C8" r:id="rId9"/>
+    <hyperlink ref="C10" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId11"/>
+    <hyperlink ref="D15" r:id="rId12"/>
+    <hyperlink ref="C17" r:id="rId13"/>
+    <hyperlink ref="C18" r:id="rId14"/>
+    <hyperlink ref="D18" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C20" r:id="rId17"/>
+    <hyperlink ref="C6" r:id="rId18"/>
+    <hyperlink ref="D2" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
+  <legacyDrawing r:id="rId21"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/PM/Attachment E Approach Criteria Evidence Template.xlsx
+++ b/PM/Attachment E Approach Criteria Evidence Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="16605" windowHeight="9435" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="16605" windowHeight="9375" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="design pool evidence" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,54 @@
     <author>nayan</author>
   </authors>
   <commentList>
+    <comment ref="C2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>nayan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Section 6.2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>nayan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Section 6.2</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C10" authorId="0">
       <text>
         <r>
@@ -46,7 +94,31 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Section 7</t>
+Section 9</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C16" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>nayan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Section 4.4</t>
         </r>
       </text>
     </comment>
@@ -103,7 +175,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>#</t>
   </si>
@@ -183,13 +255,7 @@
     <t>assembled a multidisciplinary and collaborative team including a minimum of 5 labor categories from the Development Pool labor categories to design and develop the prototype</t>
   </si>
   <si>
-    <t>Link to PM plan.(Section).</t>
-  </si>
-  <si>
     <t>https://github.com/TPRockville/dAnalytics/blob/master/PM/MOM/MOM06172015.docx</t>
-  </si>
-  <si>
-    <t>Link to PM plan.(Section)</t>
   </si>
   <si>
     <t>https://github.com/TPRockville/dAnalytics/blob/master/Req/Functional%20Spec/MOM%20-%20UX%20Design%2006182015.docx</t>
@@ -211,9 +277,6 @@
   </si>
   <si>
     <t>https://github.com/TPRockville/dAnalytics/blob/master/Engg/Design/Documents/dAnalytics-Design%20document%20.docx</t>
-  </si>
-  <si>
-    <t>https://danalytics.tpgsi.com</t>
   </si>
   <si>
     <t>https://github.com/TPRockville/dAnalytics/blob/master/Engg/Src/REST/openfda-service/src/test/java/context/TestContext.java</t>
@@ -242,12 +305,33 @@
   <si>
     <t>evidence #2</t>
   </si>
+  <si>
+    <t>https://github.com/TPRockville/dAnalytics/blob/master/Req/Storyboard/UI%20on%20Android.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/TPRockville/dAnalytics/blob/master/PM/ADS%20Project%20Plan.doc</t>
+  </si>
+  <si>
+    <t>https://github.com/TPRockville/dAnalytics/blob/master/QA/TestPlan_danalytics.doc</t>
+  </si>
+  <si>
+    <t>http://danalytics.tpgsi.com</t>
+  </si>
+  <si>
+    <t>https://github.com/TPRockville/dAnalytics/blob/master/Req/Storyboard/aws_instances.png</t>
+  </si>
+  <si>
+    <t>https://github.com/TPRockville/dAnalytics/blob/master/Req/Storyboard/spring_boot_rest_api.jpg</t>
+  </si>
+  <si>
+    <t>https://github.com/TPRockville/dAnalytics/blob/master/Req/Storyboard/UI%20on%20Iphone.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -282,6 +366,19 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -311,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -328,6 +425,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -48693,8 +48794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -48716,7 +48817,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -48744,11 +48845,11 @@
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -48776,8 +48877,8 @@
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
+      <c r="C3" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="2"/>
@@ -48807,10 +48908,10 @@
         <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -48839,7 +48940,7 @@
         <v>7</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2"/>
@@ -48869,7 +48970,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2"/>
@@ -48899,10 +49000,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -48931,10 +49032,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -48962,10 +49063,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -48993,7 +49096,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2"/>
@@ -49015,17 +49118,19 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:22" ht="51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>36</v>
+      <c r="C11" s="6" t="s">
+        <v>47</v>
       </c>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -49053,9 +49158,11 @@
         <v>10</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -49083,7 +49190,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2"/>
@@ -49113,10 +49220,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -49145,10 +49252,10 @@
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -49169,12 +49276,18 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -49203,7 +49316,7 @@
         <v>19</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
@@ -49233,10 +49346,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -49265,7 +49378,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
@@ -49295,7 +49408,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
@@ -72888,28 +73001,34 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C14" r:id="rId1"/>
-    <hyperlink ref="C11" r:id="rId2"/>
-    <hyperlink ref="C12" r:id="rId3"/>
-    <hyperlink ref="C13" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C4" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="D8" r:id="rId8"/>
-    <hyperlink ref="C8" r:id="rId9"/>
-    <hyperlink ref="C10" r:id="rId10"/>
-    <hyperlink ref="C15" r:id="rId11"/>
-    <hyperlink ref="D15" r:id="rId12"/>
-    <hyperlink ref="C17" r:id="rId13"/>
-    <hyperlink ref="C18" r:id="rId14"/>
-    <hyperlink ref="D18" r:id="rId15"/>
-    <hyperlink ref="C19" r:id="rId16"/>
-    <hyperlink ref="C20" r:id="rId17"/>
-    <hyperlink ref="C6" r:id="rId18"/>
-    <hyperlink ref="D2" r:id="rId19"/>
+    <hyperlink ref="C12" r:id="rId2"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="D4" r:id="rId6"/>
+    <hyperlink ref="D8" r:id="rId7"/>
+    <hyperlink ref="C8" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C15" r:id="rId10"/>
+    <hyperlink ref="D15" r:id="rId11"/>
+    <hyperlink ref="C17" r:id="rId12"/>
+    <hyperlink ref="C18" r:id="rId13"/>
+    <hyperlink ref="D18" r:id="rId14"/>
+    <hyperlink ref="C19" r:id="rId15"/>
+    <hyperlink ref="C20" r:id="rId16"/>
+    <hyperlink ref="C6" r:id="rId17"/>
+    <hyperlink ref="D2" r:id="rId18"/>
+    <hyperlink ref="C16" r:id="rId19"/>
+    <hyperlink ref="C9" r:id="rId20"/>
+    <hyperlink ref="C2" r:id="rId21"/>
+    <hyperlink ref="C3" r:id="rId22"/>
+    <hyperlink ref="D12" r:id="rId23"/>
+    <hyperlink ref="D16" r:id="rId24"/>
+    <hyperlink ref="D9" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
-  <legacyDrawing r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
